--- a/Marcus.xlsx
+++ b/Marcus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/PythonScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/PythonScripts/Projects/Marcus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FE43EB-0297-8844-99CE-D56EEC52942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE5797-4372-6A4E-B603-AA558177D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F6313DC8-9392-1F46-ACDC-AFCEA2F81B2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Livre I</t>
   </si>
@@ -44,21 +44,6 @@
     <t>FR</t>
   </si>
   <si>
-    <t>À Diognète[12], j’ai dû de ne pas m’appliquer à des riens ; de ne jamais croire à tout ce que les sorciers et les charlatans[13] débitent de leurs incantations et des conjurations de démons, ni à tant d’autres inventions aussi fausses. Je lui ai dû encore de ne pas me plaire à élever des cailles de combat[14] et de ne point me passionner pour ces puérilités ; de savoir supporter la franchise de ceux qui me parlent ; d’avoir contracté le goût de la philosophie ; d’avoir suivi d’abord les leçons de Bacchius, puis ensuite celles de Tandasis et de Marcien; d’avoir composé des dialogues dès mon enfance, et de m’être fait une joie du grabat, du simple cuir[18], et de tous les ustensiles dont se compose la discipline des philosophes grecs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À Rusticus[19], j’ai dû de m’apercevoir que j’avais à redresser et à surveiller mon humeur ; de ne point me laisser aller aux engouements de la sophistique ; de ne point écrire sur les sciences spéculatives ; de ne pas déclamer de petits sermons vaniteux ; de ne point chercher à frapper les imaginations en m’affichant pour un homme plein d’activité ou de bienfaisance ; de me défendre de toute rhétorique, de toute poésie et de toute affectation dans le style. Je lui dois encore de n’avoir pas la sottise de me promener en robe traînante à la maison, et de me défendre de ces molles habitudes ; d’écrire sans aucune prétention[20] ma correspondance, dans le genre de la lettre qu’il écrivit lui- même de Sinuesse[21] à ma mère. Il m’a montré aussi à être toujours prêt à rappeler ou à accueillir ceux qui m’avaient chagriné ou négligé, dès le moment qu’ils étaient eux- mêmes disposés à revenir ; à toujours apporter grande attention à mes lectures, et à ne pas me contenter de comprendre à demi ce que je lisais ; à ne pas acquiescer trop vite aux propositions qui m’étaient faites. Enfin, je lui dois d’avoir connu les Commentaires d’Épictète[22], qu’il me prêta de sa propre bibliothèque. </t>
-  </si>
-  <si>
-    <t>D’Apollonius[23], j’ai appris à avoir l’esprit libre et à être ferme sans hésitation ; à ne regarder jamais qu’à la raison, sans en dévier un seul instant ; à conserver toujours une parfaite égalité d’âme contre les douleurs les plus vives, la perte d’un enfant par exemple ou les longues maladies. J’ai vu clairement en lui, par un exemple vivant, qu’une même personne peut être tout ensemble pleine de résolution et de facilité ; et qu’on peut n’être point rude en enseignant ; il m’a donné le spectacle éclatant d’un homme qui regarde comme la moindre de ses qualités de savoir transmettre la science à autrui, avec une rare expérience et tout en courant. C’est lui encore qui m’a appris l’art de recevoir de la main de mes amis de prétendus services, sans en être diminué, et sans y paraître insensible quand je ne croyais pas devoir les accepter.</t>
-  </si>
-  <si>
-    <t>De Sextus[24], j’ai appris ce que c’est que la bienveillance, une famille paternellement gouvernée et le vrai sens du précepte Vivre selon la nature ; la gravité sans prétention ; la sollicitude qui devine les besoins de nos amis ; la patience à supporter les fâcheux et leurs propos irréfléchis ; la faculté de s’entendre si bien avec tout le monde que son simple commerce semblait plus agréable que ne peut l’être aucune flatterie, et que ceux qui l’entretenaient n’avaient jamais plus de respect pour lui que dans ces rencontres ; l’habileté à saisir, à trouver, chemin faisant, et à classer les préceptes nécessaires à la pratique de la vie ; le soin de ne jamais montrer d’emportement ni aucune autre passion excessive ; le talent d’être à la fois le plus impassible et le plus affectueux des hommes ; le plaisir à dire du bien des gens mais sans bruit ; enfin une instruction immense sans ostentation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par l’exemple d’Alexandre le grammairien[25], j’ai appris à ne jamais choquer les gens, à ne les point heurter par une brusquerie blessante pour un barbarisme qu’ils auraient commis, pour une tournure fautive ou une prononciation vicieuse qui leur serait échappée ; mais à m’arranger adroitement dans la conversation pour que le mot qui aurait dû être choisi d’abord reparût, par manière de réponse ou de confirmation, en donnant mon avis sur la chose même sans m’arrêter du tout à l’expression malheureuse, ou en prenant soigneusement tel autre détour pour dissimuler l’allusion. </t>
-  </si>
-  <si>
     <t>Chapitre</t>
   </si>
   <si>
@@ -114,6 +99,21 @@
   </si>
   <si>
     <t xml:space="preserve">De mon premier instituteur, de ne pas choisir de camps lors des courses de chars et combats de gladiateurs; il m’a montré aussi à endurer la fatigue, à restreindre mes besoins, à faire beaucoup par moi-même, à m'occuper de mes affaires, et à éviter d'écouter les dénonciations </t>
+  </si>
+  <si>
+    <t>De Diognète, d'éviter de perdre son temps ; de ne jamais croire aux incantations et conjurations de démons des sorciers et autres charlatants, ni à tant d’autres inventions aussi fausses. De ne pas m'attarder sur des batailles futiles ou sur d'autres puérilités ; de savoir supporter la franchise de ceux qui me parlent ; d’avoir contracté le goût de la philosophie ; d’avoir suivi les leçons de Bacchius, puis ensuite celles de Tandasis et de Marcien; d’avoir écrit des essais dès mon enfance, et de m’être fait au mode de vie grec, leurs lit de camps et leurs cuir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Rusticus, de m'avoir fait comprendre que devais entraîner et̀ redresser mon caractère ; de ne point me laisser aller aux engouements de la réthorie ; de ne point écrire sur les sciences spéculatives, de ne pas donner de petits sermons vaniteux, ou de ne point chercher à frapper les imaginations en m’affichant pour un homme plein d’activité ou de bienfaisance ; de rester loin de la réthorie, de la poésie et de toute affectation dans le style ; de ne pas parader en costume de cérémonie à la maison, et de ne faire des choses du même genre ; d’écrire sans aucune prétention ma correspondance, dans le genre de la lettre qu’il écrivit lui- même de Sinuesse à ma mère. Il m’a montré aussi à être toujours prêt à rappeler ou à accueillir ceux qui m’avaient chagriné ou négligé, dès le moment qu’ils étaient eux- mêmes disposés à revenir ; de toujours apporter une grande attention à mes lectures, et à ne pas me contenter de comprendre à demi ce que je lisais ; d̀e ne pas acquiescer trop vite aux propositions qui m’étaient faites. Enfin, je lui dois d’avoir connu les Entretiens d’Épictète, qu’il me prêta de sa propre bibliothèque. </t>
+  </si>
+  <si>
+    <t>D’Apollonius, j’ai appris à avoir l’esprit libre et à être ferme sans hésitation ; à ne rien chercher sauf la raison, sans en dévier un seul instant ; à conserver toujours une parfaite égalité d’âme contre les douleurs les plus vives, la perte d’un enfant ou les longues maladies. À voir qu’une même personne peut être tout plein de force de caractère et de peut être relâchée ; et qu’on peut n’être point impatient en enseignant ; il m’a montré être un homme qui regarde la moindre de ses qualités de savoir transmettre la science à autrui, comme des qualités basiques. C’est lui encore qui m’a appris l’art de recevoir de mes amis des services, sans en être diminué, et sans y paraître insensible quand je ne croyais pas devoir les accepter.</t>
+  </si>
+  <si>
+    <t>De Sextus, j’ai appris ce qu’est la bienveillance, une famille paternellement gouvernée et le vrai sens du précepte Vivre selon la Nature ; la gravité sans prétention ; de montrer de la sympathie pour nos amis ; la patience à supporter les amateurs et leurs propos irréfléchis ; la faculté de s’entendre si bien avec tout le monde que sa simple présence semblait plus agréable que ne peut l’être aucune flatterie, et que ceux qui l’entretenaient n’avaient jamais plus de respect pour lui que dans ces rencontres ; l’habileté à saisir, à trouver, et à classer les préceptes nécessaires à la pratique de la vie ; le soin de ne jamais montrer d’emportement ni aucune autre passion excessive ; le talent d’être à la fois le plus impassible et le plus affectueux des hommes ; le plaisir à dire du bien des gens mais sans l'ébruiter ; enfin d'être instruit sans le montrer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par l’exemple d’Alexandre le grammairien, j’ai appris à ne jamais corriger les gens, surtout par une brusquerie blessante pour un barbarisme ou une mauvaise prononciation qu’ils auraient commis ; mais à m’arranger adroitement dans la conversation pour que le mot qui aurait dû être choisi d’abord reparût, en réponse ou en confirmation, en donnant mon avis sur la chose même sans m’arrêter du tout à l’expression malheureuse, ou en prenant soigneusement tel autre détour pour dissimuler l’allusion. </t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,16 +487,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -504,85 +504,139 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+      <c r="D11" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Marcus.xlsx
+++ b/Marcus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/PythonScripts/Projects/Marcus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE5797-4372-6A4E-B603-AA558177D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D295F1B-AE13-E841-ACD3-9A5433D80352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F6313DC8-9392-1F46-ACDC-AFCEA2F81B2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Livre I</t>
   </si>
@@ -114,13 +114,347 @@
   </si>
   <si>
     <t xml:space="preserve">Par l’exemple d’Alexandre le grammairien, j’ai appris à ne jamais corriger les gens, surtout par une brusquerie blessante pour un barbarisme ou une mauvaise prononciation qu’ils auraient commis ; mais à m’arranger adroitement dans la conversation pour que le mot qui aurait dû être choisi d’abord reparût, en réponse ou en confirmation, en donnant mon avis sur la chose même sans m’arrêter du tout à l’expression malheureuse, ou en prenant soigneusement tel autre détour pour dissimuler l’allusion. </t>
+  </si>
+  <si>
+    <r>
+      <t>D’Alexandre le Platonicien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[27]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">, j’ai appris à ne pas dire aux gens à tout propos et sans nécessité, quand je leur parle ou que je leur réponds par lettre : « Je n’ai pas le temps » ; et à ne pas décliner constamment, par cette facile excuse, mes devoirs divers envers ceux qui vivent avec moi, en alléguant les affaires qui me pressent. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Catulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[28]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, j’ai appris à ne jamais négliger les plaintes d’un ami, même quand il se plaint sans motif, mais à tout essayer pour l’adoucir et pour rétablir l’ancienne intimité ; il m’a appris aussi à louer mes maîtres de tout cœur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[29]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, comme avaient coutume de le faire, à ce qu’il rapportait, Domitius et Athénodote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">[30] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">; et à ressentir pour mes enfants le dévouement le plus sincère. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Fronton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">, j’ai pu apprendre tout ce qu’un tyran peut ressentir de jalousie, et avoir de duplicité, et de fourberie, et combien ceux que nous appelons Patriciens ont, pour la plupart, peu de bonté et d’affection dans le cœur. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De mon frère Sévérus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[31]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, j’ai appris à aimer la famille, à aimer le vrai, à aimer le juste ; grâce à lui, j’ai apprécié Thraséas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[32]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, Helvidius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[33]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, Caton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[34]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, Dion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">[35] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>et Brutus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">[36] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>; j’ai pu me faire l’idée de ce que serait un État où régnerait une égalité complète des lois, avec l’égalité des citoyens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">[37] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">jouissant de droits égaux ; et l’idée d’une royauté qui respecterait par-dessus tout la liberté des sujets. C’est lui qui m’a appris à vouer à la philosophie un culte constant et inaltérable ; à être bienfaisant ; à donner sans me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lasser ; à garder toujours bonne espérance ; à me confier à l’affection de mes amis ; à ne plus rien cacher à ceux qui s’étaient réconciliés, après leur pardon ; à ne pas forcer mes intimes, sans cesse inquiets, à se demander : « Que veut-il ? Que ne veut-il pas ? », mais à être toujours net et franc avec eux. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Maxime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[38]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">, j’ai appris ce que c’est que d’être maître de soi ; de ne jamais rester indécis ; de supporter de bon cœur toutes les épreuves, y compris les maladies ; de tempérer son caractère par un mélange d’aménité et de tenue ; d’exécuter sans marchander toutes les obligations qu’on a ; d’inspirer à tout le monde cette conviction que, quand on parle, on dit toujours ce qu’on pense, et que, quand on agit, on a l’intention de bien faire ; de ne s’étonner de rien ; de ne se point troubler ; de ne jamais se presser ni se laisser aller à l’indolence ; de ne jamais se déconcerter dans le désespoir en s’abandonnant soi-même et en s’anéantissant ; ou de ne pas reprendre trop subitement du courage et une confiance exagérée ; d’être serviable et prompt à l’indulgence ; en un mot, de donner de soi plutôt l’idée d’un homme qui ne change pas que celle d’un homme qui se réforme, de quelqu’un dont jamais personne n’a dû croire être dédaigné, et à qui personne ne s’est jamais cru supérieur ; enfin de tâcher d’être affable pour tout le monde. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De mon père adoptif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[39]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>, j’ai appris la bonté ; l’inébranlable constance dans les jugements qui ont été une fois mûris par la réflexion ; le dédain pour ces honneurs factices qui séduisent la vanité ; la passion du travail ; l’application perpétuelle ; la disposition à prêter l’oreille à toutes les idées qui concernent l’intérêt public ; l’invariable attention à rendre à chacun selon son mérite ; le discernement à juger des occasions où l’on doit tendre les ressorts et de celles où on peut les relâcher ; la sévérité à poursuivre et à punir les amours pour les jeunes gens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">[40] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">; le dévouement au bien de l’État ; la liberté qu’il laissait à ses amis, sans les astreindre nécessairement à partager tous ses repas, ou à le suivre dans tous ses voyages ; l’absolue égalité d’humeur, où le retrouvaient au retour ceux qui avaient dû le quitter pour quelque cause urgente ; la consciencieuse analyse des choses dans toutes les délibérations ; la persistance à ne point se départir de son examen, en se contentant des premières solutions qui se présentaient ; l’attachement rempli de soins pour ses amis, aussi peu porté à se dégoûter d’eux sans raison qu’à les aimer à la fureur ; l’indépendance d’esprit en toutes choses et la sérénité ; la prévoyance à longue vue et la vigilance à régler les moindres détails, sans en faire tragiquement étalage ; la précaution de repousser les acclamations populaires et la flatterie sous toutes ses formes ; l’économie à ménager les ressources nécessaires à l’autorité ; la retenue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dans les dépenses pour les fêtes, tout prêt à souffrir les critiques sur ce chapitre ; la piété sans superstition envers les dieux ; la dignité avec le peuple, qu’il ne fatigua jamais de ses adulations ni de son empressement à complaire à la foule ; la sobre mesure en toutes choses ; le solide respect de toutes les convenances, sans un goût trop vif pour les nouveautés ; l’usage, sans faste et aussi sans façon, des choses qui rendent la vie plus douce dans les occasions où c’est le hasard qui les offre, les prenant quand elles se trouvaient sous sa main avec indifférence, et n’en ayant nul besoin, si elles venaient à manquer ; l’attitude de quelqu’un dont on ne peut dire ni qu’il est un sophiste, ni qu’il est un provincial, ni qu’il est entiché de l’école, mais d’un homme dont on dit qu’il est mûr et complet, au-dessus de la flatterie, capable d’être à la tête de ses affaires propres et des affaires des autres. Ajoutez-y encore l’estime pour les vrais philosophes ; l’indulgence exempte de blâme pour les philosophes prétendus, sans d’ailleurs être jamais leur dupe ; le commerce facile ; la bonne grâce sans fadeur ; un soin modéré de sa personne, comme il convient quand on n’est pas trop amoureux de la vie, sans songer à rehausser ses avantages, mais aussi sans négligence, de manière à n’avoir presque jamais besoin, grâce à ce régime tout individuel, ni de médecine, ni de remèdes intérieurs ou extérieurs ; la facilité extrême à s’effacer sans jalousie devant les gens qui s’étaient acquis une supériorité quelconque, soit en éloquence, soit en connaissance approfondie des lois, des mœurs, et des matières de cet ordre ; la condescendance qui s’associait à leurs efforts pour les faire valoir, chacun dans leur domaine spécial ; la fidélité en toutes choses aux traditions des ancêtres, sans d’ailleurs vouloir se donner l’air d’y tenir essentiellement ; un esprit qui n’était ni mobile, ni agité, mais sachant endurer la monotonie des lieux et des choses ; reprenant les occupations habituelles, dès que le permettaient des maux de tête cruels, avec plus d’ardeur et de vivacité que jamais ; n’ayant pas beaucoup de secrets qui lui appartinssent, et ces secrets en très-petit nombre et fort rares ne concernant guère que l’État ; circonspect et très-regardant dans la célébration des fêtes solennelles, dans le développement des travaux publics, dans les distributions au peuple ; et quand il les croyait nécessaires, ayant en vue ce que la convenance exigeait bien plutôt que le renom qu’il en pourrait retirer pour ce qu’il aurait fait ; ne prenant jamais de bains hors des heures régulières ; sans passion pour les bâtisses ; ne songeant nullement à la composition de ses repas, ni à la qualité ou à la couleur de ses habits, ni à la beauté de ses gens. Ses vêtements étaient faits de la laine de Lorium[41], sa petite ferme, et le plus souvent de la laine de Lanuvium[42] ; le manteau qu’il avait à Tusculum était d’emprunt ; et toute sa façon était aussi simple. Jamais rien de dur, rien même de brusque, rien de pressé, et comme dit le proverbe : « Jamais jusqu’à la sueur : » mais toute chose faite avec pleine réflexion, comme à loisir, sans le moindre trouble, dans un ordre absolu, robustement, et en harmonieuse correspondance de toutes les parties. C’est bien à lui que s’applique cette louange adressée jadis à Socrate[43] « qu’il savait s’abstenir et jouir de ces choses dont la plupart des hommes ne s’abstiennent qu’à contre- cœur, et dont ils jouissent en s’y abandonnant avec ivresse. » Demeurer fort dans l’une et l’autre rencontre, conserver constamment sa vigueur et sa tempérance, n’appartient qu’à l’homme qui a l’âme ferme et invincible, comme fut mon père durant la maladie de Maxime[44]. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Je dois aux Dieux d’avoir eu de bons aïeuls, de bons parents, une bonne sœur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000ED"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t>[45]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="LiberationSerif"/>
+      </rPr>
+      <t xml:space="preserve">, de bons maîtres, des serviteurs, des proches, des amis, qui tous étaient bons également presque sans exception. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">À l’égard d’aucun d’eux, je ne me suis jamais laissé aller à quelque inconvenance, bien que par disposition naturelle je fusse assez porté à commettre des fautes de ce genre ; mais la clémence des Dieux a voulu qu’il ne se rencontrât jamais un tel concours de circonstances qui pût révéler en moi ce mauvais penchant. Grâce à eux encore, j’ai pu ne pas rester trop longtemps chez la concubine de mon grand- père ; j’ai pu sauver la fleur de ma jeunesse, sans me faire homme avant le moment[46] ; j’ai pu même sous ce rapport gagner un peu de temps ; vivre sous la main d’un prince et d’un père qui devait déraciner en moi tout orgueil, et m’amener à être convaincu qu’on peut, tout en vivant dans une cour, n’avoir nul besoin ni de gardes, ni de costumes éclatants, ni de lampes, ni de statues, ni de tout ce faste inutile, et qu’on peut toujours s’arranger pour se rapprocher le plus possible de la condition privée, sans avoir pour cela plus de timidité ou de faiblesse quand il faut donner des ordres au nom de l’intérêt public. Les Dieux m’ont aussi accordé d’avoir un frère[47] dont le caractère était fait pour éveiller ma vigilance sur moi-même et qui en même temps faisait mon bonheur par la confiance et l’affection qu’il me montrait. Grâce à eux aussi, je n’ai point éprouvé le malheur d’avoir des enfants laids ou contrefaits ; je n’ai point poussé plus loin qu’il ne fallait la Rhétorique, la Politique, ni tant d’autres études où j’aurais peut-être été retenu plus que de raison, si j’avais trouvé que j’y fisse de faciles progrès. Je me suis hâté d’élever tous les maîtres qui avaient fait mon éducation aux honneurs qu’ils me semblaient désirer, et je ne les ai point bercés de l’espoir que, puisqu’ils étaient jeunes encore, ce ne serait que plus tard que je m’occuperais d’eux. Les Dieux m’ont accordé la faveur de connaître Apollonius, Rusticus, Maxime[48], qui m’ont donné l’idée claire et lumineuse de ce que doit être la vie selon la nature, et qui souvent m’en ont offert l’exemple dans toute sa réalité. De telle sorte que, du côté des Dieux, par leurs bienfaits, leurs secours et leurs inspirations, rien ne me manque plus pour vivre comme la nature le veut, et que, si je suis encore loin du but, je ne puis m’en prendre qu’à moi-même de n’avoir point écouté leurs conseils, et je pourrais dire leurs leçons. Si mon corps a supporté jusqu’à cette heure les règles d’une telle vie ; si je n’ai touché ni à Bénédicta, ni à Théodote[49] ; si plus tard, livré aussi aux passions de l’amour, j’ai pu en guérir ; si dans mes fréquentes colères contre Rusticus, je n’ai jamais rien fait de plus que j’aie eu à regretter ; si ma mère[50], qui devait mourir à la fleur de son âge, a pu cependant passer avec moi ses dernières années ; si jamais dans les occasions où j’ai voulu secourir quelqu’un dans un besoin d’argent ou dans tout autre embarras, je ne me suis entendu répondre que je ne pouvais avoir les fonds nécessaires à mon dessein ; si jamais nécessité pareille de recevoir quelque chose d’autrui n’a pesé sur moi ; si ma femme[51] est d’une nature docile, affectueuse et simple ; si j’ai pu rencontrer tant d’excellentes personnes pour l’éducation de mes enfants ; si des remèdes m’ont été révélés dans mes songes, particulièrement contre les crachements de sang et les vertiges, à Gaëte tout comme à Chryse[52] ; si, dans ma passion pour la philosophie, je ne suis pas tombé aux mains de quelque sophiste ; si je ne me suis pas entêté aux ouvrages de quelque écrivain, ou à la solution des syllogismes, ou à la recherche des phénomènes célestes ; tant d’avantages ne peuvent venir que de l’aide des Dieux[53] et des grâces qu’ils daignent accorder. </t>
+    </r>
+  </si>
+  <si>
+    <t>Chapitre 11</t>
+  </si>
+  <si>
+    <t>Chapitre 12</t>
+  </si>
+  <si>
+    <t>Chapitre 13</t>
+  </si>
+  <si>
+    <t>Chapitre 14</t>
+  </si>
+  <si>
+    <t>Chapitre 15</t>
+  </si>
+  <si>
+    <t>Chapitre 16</t>
+  </si>
+  <si>
+    <t>Chapitre 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +467,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="LiberationSerif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000ED"/>
+      <name val="LiberationSerif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,18 +818,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51B8F53-7436-B94E-88E3-5DF14F5BECB2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="69.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -499,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -527,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -541,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="51">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -555,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="68">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -569,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="119">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -583,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="255">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -597,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="170">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -611,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="187">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -625,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="119">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -637,6 +981,62 @@
       </c>
       <c r="D11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="80">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="228">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="340">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="409.6">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="409.6">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
